--- a/Mifos Automation Excels/Client/3048-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%INT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3048-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%INT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -172,15 +172,6 @@
     <t>Income from interest(7)</t>
   </si>
   <si>
-    <t>$ 84.82</t>
-  </si>
-  <si>
-    <t>$ 93.91</t>
-  </si>
-  <si>
-    <t>$ 785.8</t>
-  </si>
-  <si>
     <t>Penalties Receivable(5)</t>
   </si>
   <si>
@@ -190,10 +181,13 @@
     <t>L212</t>
   </si>
   <si>
-    <t>$ 1.02</t>
-  </si>
-  <si>
     <t>$ 888.74</t>
+  </si>
+  <si>
+    <t>$ 786.82</t>
+  </si>
+  <si>
+    <t>$ 92.05</t>
   </si>
 </sst>
 </file>
@@ -661,7 +655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -699,22 +695,22 @@
         <v>10000</v>
       </c>
       <c r="B2" s="6">
-        <v>785.8</v>
+        <v>786.82</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
         <v>0</v>
       </c>
       <c r="E2" s="9">
-        <v>9214.2000000000007</v>
+        <v>9213.18</v>
       </c>
       <c r="F2" s="6">
-        <v>802.9</v>
+        <v>802.91</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>668.41</v>
+        <v>668.27</v>
       </c>
       <c r="B3" s="6">
         <v>101.92</v>
@@ -726,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>566.49</v>
+        <v>566.35</v>
       </c>
       <c r="F3" s="6">
-        <v>84.82</v>
+        <v>84.81</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -754,10 +750,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="B5" s="6">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -766,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>0.85</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -783,7 +779,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection sqref="A1:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,10 +895,10 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="6">
-        <v>785.8</v>
+        <v>786.82</v>
       </c>
       <c r="G3" s="9">
-        <v>9214.2000000000007</v>
+        <v>9213.18</v>
       </c>
       <c r="H3" s="6">
         <v>101.92</v>
@@ -911,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K3" s="6">
         <v>888.74</v>
@@ -945,22 +941,22 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>802.9</v>
+        <v>802.91</v>
       </c>
       <c r="G4" s="9">
-        <v>8411.2999999999993</v>
+        <v>8410.27</v>
       </c>
       <c r="H4" s="6">
-        <v>84.82</v>
+        <v>84.81</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="K4" s="6">
-        <v>888.57</v>
+        <v>887.72</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -975,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6">
-        <v>888.57</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -991,13 +987,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>793.81</v>
+        <v>793.82</v>
       </c>
       <c r="G5" s="9">
-        <v>7617.49</v>
+        <v>7616.45</v>
       </c>
       <c r="H5" s="6">
-        <v>93.91</v>
+        <v>93.9</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -1037,13 +1033,13 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>812.59</v>
+        <v>812.6</v>
       </c>
       <c r="G6" s="9">
-        <v>6804.9</v>
+        <v>6803.85</v>
       </c>
       <c r="H6" s="6">
-        <v>75.13</v>
+        <v>75.12</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1083,13 +1079,13 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>818.37</v>
+        <v>818.38</v>
       </c>
       <c r="G7" s="9">
-        <v>5986.53</v>
+        <v>5985.47</v>
       </c>
       <c r="H7" s="6">
-        <v>69.349999999999994</v>
+        <v>69.34</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1129,13 +1125,13 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>828.67</v>
+        <v>828.69</v>
       </c>
       <c r="G8" s="9">
-        <v>5157.8599999999997</v>
+        <v>5156.78</v>
       </c>
       <c r="H8" s="6">
-        <v>59.05</v>
+        <v>59.03</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1175,13 +1171,13 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
-        <v>835.15</v>
+        <v>835.16</v>
       </c>
       <c r="G9" s="9">
-        <v>4322.71</v>
+        <v>4321.62</v>
       </c>
       <c r="H9" s="6">
-        <v>52.57</v>
+        <v>52.56</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
@@ -1221,13 +1217,13 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6">
-        <v>843.66</v>
+        <v>843.67</v>
       </c>
       <c r="G10" s="9">
-        <v>3479.05</v>
+        <v>3477.95</v>
       </c>
       <c r="H10" s="6">
-        <v>44.06</v>
+        <v>44.05</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
@@ -1267,13 +1263,13 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
-        <v>853.41</v>
+        <v>853.42</v>
       </c>
       <c r="G11" s="9">
-        <v>2625.64</v>
+        <v>2624.53</v>
       </c>
       <c r="H11" s="6">
-        <v>34.31</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="I11" s="6">
         <v>0</v>
@@ -1313,13 +1309,13 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6">
-        <v>860.96</v>
+        <v>860.97</v>
       </c>
       <c r="G12" s="9">
-        <v>1764.68</v>
+        <v>1763.56</v>
       </c>
       <c r="H12" s="6">
-        <v>26.76</v>
+        <v>26.75</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
@@ -1359,13 +1355,13 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6">
-        <v>870.31</v>
+        <v>870.33</v>
       </c>
       <c r="G13" s="6">
-        <v>894.37</v>
+        <v>893.23</v>
       </c>
       <c r="H13" s="6">
-        <v>17.41</v>
+        <v>17.39</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -1405,13 +1401,13 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <v>894.37</v>
+        <v>893.23</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>9.1199999999999992</v>
+        <v>9.1</v>
       </c>
       <c r="I14" s="6">
         <v>0</v>
@@ -1420,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <v>903.49</v>
+        <v>902.33</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -1435,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>903.49</v>
+        <v>902.33</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1445,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A2:XFD7"/>
+      <selection activeCell="I2" sqref="I2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,7 +1614,7 @@
         <v>888.74</v>
       </c>
       <c r="F5" s="6">
-        <v>785.8</v>
+        <v>786.82</v>
       </c>
       <c r="G5" s="6">
         <v>101.92</v>
@@ -1627,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="6">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="J5" s="9">
-        <v>9214.2000000000007</v>
+        <v>9213.18</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -1811,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="G6" sqref="G6:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,7 +1820,7 @@
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1853,7 +1849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>328</v>
       </c>
@@ -1864,7 +1860,7 @@
         <v>42036</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>36</v>
@@ -1877,11 +1873,11 @@
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>329</v>
       </c>
@@ -1892,7 +1888,7 @@
         <v>42036</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>36</v>
@@ -1909,9 +1905,9 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>27</v>
@@ -1920,7 +1916,7 @@
         <v>42036</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>36</v>
@@ -1929,53 +1925,33 @@
         <v>35</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>331</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>57</v>
-      </c>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1984,10 +1960,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,7 +1977,7 @@
     <col min="8" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -2030,7 +2006,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>276</v>
       </c>
@@ -2056,7 +2032,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>277</v>
       </c>
@@ -2082,9 +2058,35 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>298</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11">
+        <v>42064</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>27</v>
@@ -2096,47 +2098,21 @@
         <v>2</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>297</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="11">
-        <v>42064</v>
-      </c>
-      <c r="D6" s="11">
-        <v>2</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>27</v>
@@ -2154,15 +2130,15 @@
         <v>35</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>27</v>
@@ -2180,63 +2156,175 @@
         <v>35</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>298</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42064</v>
+      </c>
+      <c r="D9" s="11">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="11">
-        <v>42095</v>
+        <v>42064</v>
       </c>
       <c r="D10" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>300</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="11">
+        <v>42095</v>
+      </c>
+      <c r="D12" s="11">
+        <v>3</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H12" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>301</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="11">
+        <v>42095</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>298</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="11">
+        <v>42064</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>299</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="11">
+        <v>42064</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>301</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="11">
-        <v>42095</v>
-      </c>
-      <c r="D11" s="11">
-        <v>3</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="I15" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J16" s="6"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3048-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%INT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3048-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%INT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -148,15 +148,9 @@
     <t>L7</t>
   </si>
   <si>
-    <t>$ 10,000</t>
-  </si>
-  <si>
     <t>Interest Receivable(3)</t>
   </si>
   <si>
-    <t>$ 101.92</t>
-  </si>
-  <si>
     <t>clickonmakerepayment</t>
   </si>
   <si>
@@ -178,16 +172,31 @@
     <t>Income from penalties(9)</t>
   </si>
   <si>
-    <t>L212</t>
-  </si>
-  <si>
-    <t>$ 888.74</t>
-  </si>
-  <si>
-    <t>$ 786.82</t>
-  </si>
-  <si>
-    <t>$ 92.05</t>
+    <t>$ 10,000</t>
+  </si>
+  <si>
+    <t>L1916</t>
+  </si>
+  <si>
+    <t>$ 785.8</t>
+  </si>
+  <si>
+    <t>$ 101.92</t>
+  </si>
+  <si>
+    <t>$ 1.02</t>
+  </si>
+  <si>
+    <t>$ 888.74</t>
+  </si>
+  <si>
+    <t>$ 84.82</t>
+  </si>
+  <si>
+    <t>$ 0.85</t>
+  </si>
+  <si>
+    <t>$ 93.91</t>
   </si>
 </sst>
 </file>
@@ -288,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -320,6 +329,20 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,15 +655,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="14">
         <v>42036</v>
@@ -653,10 +676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +693,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -690,27 +713,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>10000</v>
       </c>
       <c r="B2" s="6">
-        <v>786.82</v>
+        <v>785.8</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
         <v>0</v>
       </c>
       <c r="E2" s="9">
-        <v>9213.18</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="F2" s="6">
-        <v>802.91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>802.9</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>668.27</v>
+        <v>668.41</v>
       </c>
       <c r="B3" s="6">
         <v>101.92</v>
@@ -722,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>566.35</v>
+        <v>566.49</v>
       </c>
       <c r="F3" s="6">
-        <v>84.81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -748,12 +772,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="B5" s="6">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -762,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F5" s="6">
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +803,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P14"/>
+      <selection activeCell="J3" sqref="J3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +902,6 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -895,10 +918,10 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="6">
-        <v>786.82</v>
+        <v>785.8</v>
       </c>
       <c r="G3" s="9">
-        <v>9213.18</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="H3" s="6">
         <v>101.92</v>
@@ -907,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K3" s="6">
         <v>888.74</v>
@@ -919,9 +942,6 @@
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
@@ -941,22 +961,22 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>802.91</v>
+        <v>802.9</v>
       </c>
       <c r="G4" s="9">
-        <v>8410.27</v>
+        <v>8411.2999999999993</v>
       </c>
       <c r="H4" s="6">
-        <v>84.81</v>
+        <v>84.82</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="K4" s="6">
-        <v>887.72</v>
+        <v>888.57</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -967,11 +987,8 @@
       <c r="N4" s="6">
         <v>0</v>
       </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
       <c r="P4" s="6">
-        <v>887.72</v>
+        <v>888.57</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -987,13 +1004,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>793.82</v>
+        <v>793.81</v>
       </c>
       <c r="G5" s="9">
-        <v>7616.45</v>
+        <v>7617.49</v>
       </c>
       <c r="H5" s="6">
-        <v>93.9</v>
+        <v>93.91</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -1011,9 +1028,6 @@
         <v>0</v>
       </c>
       <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
         <v>0</v>
       </c>
       <c r="P5" s="6">
@@ -1033,13 +1047,13 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>812.6</v>
+        <v>812.59</v>
       </c>
       <c r="G6" s="9">
-        <v>6803.85</v>
+        <v>6804.9</v>
       </c>
       <c r="H6" s="6">
-        <v>75.12</v>
+        <v>75.13</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1057,9 +1071,6 @@
         <v>0</v>
       </c>
       <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
         <v>0</v>
       </c>
       <c r="P6" s="6">
@@ -1079,13 +1090,13 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>818.38</v>
+        <v>818.37</v>
       </c>
       <c r="G7" s="9">
-        <v>5985.47</v>
+        <v>5986.53</v>
       </c>
       <c r="H7" s="6">
-        <v>69.34</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1103,9 +1114,6 @@
         <v>0</v>
       </c>
       <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
         <v>0</v>
       </c>
       <c r="P7" s="6">
@@ -1125,13 +1133,13 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>828.69</v>
+        <v>828.67</v>
       </c>
       <c r="G8" s="9">
-        <v>5156.78</v>
+        <v>5157.8599999999997</v>
       </c>
       <c r="H8" s="6">
-        <v>59.03</v>
+        <v>59.05</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1149,9 +1157,6 @@
         <v>0</v>
       </c>
       <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
@@ -1171,13 +1176,13 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
-        <v>835.16</v>
+        <v>835.15</v>
       </c>
       <c r="G9" s="9">
-        <v>4321.62</v>
+        <v>4322.71</v>
       </c>
       <c r="H9" s="6">
-        <v>52.56</v>
+        <v>52.57</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
@@ -1195,9 +1200,6 @@
         <v>0</v>
       </c>
       <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
         <v>0</v>
       </c>
       <c r="P9" s="6">
@@ -1217,13 +1219,13 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6">
-        <v>843.67</v>
+        <v>843.66</v>
       </c>
       <c r="G10" s="9">
-        <v>3477.95</v>
+        <v>3479.05</v>
       </c>
       <c r="H10" s="6">
-        <v>44.05</v>
+        <v>44.06</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
@@ -1241,9 +1243,6 @@
         <v>0</v>
       </c>
       <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
         <v>0</v>
       </c>
       <c r="P10" s="6">
@@ -1263,13 +1262,13 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
-        <v>853.42</v>
+        <v>853.41</v>
       </c>
       <c r="G11" s="9">
-        <v>2624.53</v>
+        <v>2625.64</v>
       </c>
       <c r="H11" s="6">
-        <v>34.299999999999997</v>
+        <v>34.31</v>
       </c>
       <c r="I11" s="6">
         <v>0</v>
@@ -1287,9 +1286,6 @@
         <v>0</v>
       </c>
       <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
         <v>0</v>
       </c>
       <c r="P11" s="6">
@@ -1309,13 +1305,13 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6">
-        <v>860.97</v>
+        <v>860.96</v>
       </c>
       <c r="G12" s="9">
-        <v>1763.56</v>
+        <v>1764.68</v>
       </c>
       <c r="H12" s="6">
-        <v>26.75</v>
+        <v>26.76</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
@@ -1333,9 +1329,6 @@
         <v>0</v>
       </c>
       <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
         <v>0</v>
       </c>
       <c r="P12" s="6">
@@ -1355,13 +1348,13 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6">
-        <v>870.33</v>
+        <v>870.31</v>
       </c>
       <c r="G13" s="6">
-        <v>893.23</v>
+        <v>894.37</v>
       </c>
       <c r="H13" s="6">
-        <v>17.39</v>
+        <v>17.41</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -1379,9 +1372,6 @@
         <v>0</v>
       </c>
       <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
         <v>0</v>
       </c>
       <c r="P13" s="6">
@@ -1401,13 +1391,13 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <v>893.23</v>
+        <v>894.37</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>9.1</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="I14" s="6">
         <v>0</v>
@@ -1416,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <v>902.33</v>
+        <v>903.49</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -1427,11 +1417,8 @@
       <c r="N14" s="6">
         <v>0</v>
       </c>
-      <c r="O14" s="6">
-        <v>0</v>
-      </c>
       <c r="P14" s="6">
-        <v>902.33</v>
+        <v>903.49</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,7 +1442,7 @@
     <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -1497,7 +1484,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>215</v>
+        <v>1827</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1531,7 +1518,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>214</v>
+        <v>1826</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>
@@ -1565,7 +1552,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>213</v>
+        <v>1825</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>27</v>
@@ -1574,16 +1561,16 @@
         <v>42036</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="6">
-        <v>1.02</v>
+        <v>888.74</v>
       </c>
       <c r="F4" s="6">
-        <v>0</v>
+        <v>785.8</v>
       </c>
       <c r="G4" s="6">
-        <v>0</v>
+        <v>101.92</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
@@ -1591,15 +1578,15 @@
       <c r="I4" s="6">
         <v>1.02</v>
       </c>
-      <c r="J4" s="6">
-        <v>0</v>
+      <c r="J4" s="9">
+        <v>9214.2000000000007</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>212</v>
+        <v>1203</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>27</v>
@@ -1608,13 +1595,13 @@
         <v>42036</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="6">
-        <v>888.74</v>
+        <v>102.94</v>
       </c>
       <c r="F5" s="6">
-        <v>786.82</v>
+        <v>0</v>
       </c>
       <c r="G5" s="6">
         <v>101.92</v>
@@ -1623,35 +1610,35 @@
         <v>0</v>
       </c>
       <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>9213.18</v>
+        <v>1.02</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>206</v>
+        <v>1196</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="7">
-        <v>42036</v>
+        <v>42005</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="6">
-        <v>101.92</v>
+        <v>15</v>
+      </c>
+      <c r="E6" s="8">
+        <v>10000</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <v>101.92</v>
+        <v>0</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
@@ -1659,45 +1646,11 @@
       <c r="I6" s="6">
         <v>0</v>
       </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>205</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="7">
-        <v>42005</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="J6" s="8">
         <v>10000</v>
       </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K7"/>
-      <c r="L7"/>
+      <c r="K6"/>
+      <c r="L6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1708,7 +1661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1767,9 +1722,8 @@
         <v>38</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="12"/>
+        <v>50</v>
+      </c>
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1794,9 +1748,8 @@
       <c r="G3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J3" s="12"/>
     </row>
@@ -1807,20 +1760,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:N7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1849,109 +1803,112 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>328</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>3539</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="16">
         <v>42036</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>3540</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="16">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
+      <c r="G3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3541</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="16">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>329</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>3542</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C5" s="16">
         <v>42036</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>331</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="G5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="9"/>
+      <c r="H5" s="18" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1960,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,7 +1934,7 @@
     <col min="8" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -2006,14 +1963,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>276</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="7">
         <v>42036</v>
       </c>
       <c r="D2" s="11">
@@ -2026,47 +1983,49 @@
         <v>35</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>277</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="7">
         <v>42036</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>298</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="11">
-        <v>42064</v>
+      <c r="C4" s="7">
+        <v>42036</v>
       </c>
       <c r="D4" s="11">
         <v>2</v>
@@ -2078,46 +2037,52 @@
         <v>35</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="11">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>299</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="11">
-        <v>42064</v>
+      <c r="C5" s="7">
+        <v>42036</v>
       </c>
       <c r="D5" s="11">
         <v>2</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="11">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>296</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>42064</v>
       </c>
       <c r="D7" s="11">
@@ -2130,46 +2095,48 @@
         <v>35</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>297</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <v>42064</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>298</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="7">
         <v>42064</v>
       </c>
       <c r="D9" s="11">
@@ -2182,46 +2149,52 @@
         <v>35</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>299</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="7">
         <v>42064</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>300</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="7">
         <v>42095</v>
       </c>
       <c r="D12" s="11">
@@ -2234,97 +2207,39 @@
         <v>35</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>301</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="7">
         <v>42095</v>
       </c>
       <c r="D13" s="11">
         <v>3</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>298</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="11">
-        <v>42064</v>
-      </c>
-      <c r="D14" s="11">
-        <v>2</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>299</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="11">
-        <v>42064</v>
-      </c>
-      <c r="D15" s="11">
-        <v>2</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J16" s="6"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3048-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%INT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3048-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%INT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -800,10 +800,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,12 +821,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -866,17 +867,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -902,8 +904,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -941,14 +944,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -984,14 +988,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>888.57</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1027,14 +1032,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1070,14 +1076,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1113,14 +1120,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1156,14 +1164,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1199,14 +1208,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1242,14 +1252,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1285,14 +1296,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1328,14 +1340,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1371,14 +1384,15 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1414,10 +1428,11 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>903.49</v>
       </c>
     </row>
@@ -1919,7 +1934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
